--- a/data files/Purchase Order/bsn.xlsx
+++ b/data files/Purchase Order/bsn.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BS file manager\BS-order-manager\data files\Purchase Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B42CD81-0B10-4BCD-9CF2-799A71941C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4368F1F-CEF8-4E3B-8E3E-FFB5E1E542E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C99EE256-B3FB-4EB4-B007-0BCA7E7C06A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C99EE256-B3FB-4EB4-B007-0BCA7E7C06A1}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>To,</t>
   </si>
@@ -113,9 +104,6 @@
   </si>
   <si>
     <t>Nawabi Road, Haldwani</t>
-  </si>
-  <si>
-    <t>19/09/24</t>
   </si>
   <si>
     <t>SI.</t>
@@ -555,31 +543,29 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="6"/>
+    <col min="3" max="3" width="22.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="D2" s="10"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -588,7 +574,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -597,14 +583,14 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -613,7 +599,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -622,26 +608,26 @@
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -654,7 +640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>8</v>
@@ -667,14 +653,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="3"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
@@ -682,12 +668,14 @@
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>300</v>
+      </c>
       <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -695,12 +683,14 @@
       <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>4</v>
@@ -708,19 +698,21 @@
       <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
       <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="3"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>15</v>
@@ -733,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>15</v>
@@ -746,14 +738,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="3"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>10</v>
@@ -766,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>10</v>
@@ -779,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>10</v>
@@ -792,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
         <v>10</v>
@@ -805,7 +797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
         <v>10</v>
@@ -813,19 +805,21 @@
       <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
       <c r="E23" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="3"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
@@ -834,14 +828,14 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -850,7 +844,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -859,7 +853,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -868,20 +862,20 @@
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
